--- a/消息队列.xlsx
+++ b/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="729" activeTab="2"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="729" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="顺序性" sheetId="5" r:id="rId5"/>
     <sheet name="积压，延时失效" sheetId="6" r:id="rId6"/>
     <sheet name="自己设计" sheetId="7" r:id="rId7"/>
+    <sheet name="Kafka" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>为什么使用消息队列,消息队列有什么优点？</t>
   </si>
@@ -1517,6 +1518,21 @@
   </si>
   <si>
     <t>多副本 -&gt; leader &amp; follower -&gt; broker 挂了重新选举 leader 即可对外服务。</t>
+  </si>
+  <si>
+    <t>每个Broker中都有leader,follower，leader用来操作，follower只用来备份</t>
+  </si>
+  <si>
+    <t>0.9版本前offset保存在zk里，0.9版本后保存在kafka的磁盘中，保存7天</t>
+  </si>
+  <si>
+    <t>一个集群内的多台服务器，不能保证全局有序性，只能保证区内有序性，</t>
+  </si>
+  <si>
+    <t>kafka是通过topic进行分类的</t>
+  </si>
+  <si>
+    <t>topic是逻辑上的概念，partition分区是物流上的额概念，kafka通过topic+分区来</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1540,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1558,9 +1574,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,17 +1588,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,7 +1619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1610,15 +1634,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,34 +1664,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1671,18 +1679,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1696,7 +1712,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,7 +1745,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,43 +1871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,127 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,17 +1954,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1971,15 +1996,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1987,16 +2003,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2030,8 +2046,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2043,10 +2059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,133 +2071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2888,7 +2904,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:N47"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2983,8 +2999,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3344,4 +3360,46 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/消息队列.xlsx
+++ b/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="729" activeTab="7"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -1574,8 +1574,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,16 +1596,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,46 +1619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,11 +1642,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1695,6 +1680,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1702,21 +1688,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1745,7 +1745,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,31 +1811,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,31 +1877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,55 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,31 +1913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,11 +1954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1978,17 +1984,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2017,17 +2019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2046,6 +2037,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2059,10 +2059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,133 +2071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2679,8 +2679,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3367,8 +3367,8 @@
   <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
